--- a/branches/issue-140/StructureDefinition-be-medicationdispense.xlsx
+++ b/branches/issue-140/StructureDefinition-be-medicationdispense.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T11:58:18+00:00</t>
+    <t>2022-05-06T12:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
